--- a/really.xlsx
+++ b/really.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="406">
   <si>
     <t xml:space="preserve">session_start</t>
   </si>
@@ -52,33 +52,36 @@
     <t xml:space="preserve">2021.10.12 12.36.09.316</t>
   </si>
   <si>
+    <t xml:space="preserve">12:46:54.431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeXico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xIDx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nekopara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AoWAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arh</t>
+  </si>
+  <si>
     <t xml:space="preserve">12:48:02.256</t>
   </si>
   <si>
-    <t xml:space="preserve">MeXico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xIDx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nekopara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AoWAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arh</t>
-  </si>
-  <si>
     <t xml:space="preserve">12:49:47.855</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t xml:space="preserve">2021.10.12 15.27.56.434</t>
   </si>
   <si>
+    <t xml:space="preserve">15:29:45.464</t>
+  </si>
+  <si>
     <t xml:space="preserve">15:30:49.873</t>
   </si>
   <si>
@@ -187,12 +193,15 @@
     <t xml:space="preserve">2021.10.12 17.42.08.408</t>
   </si>
   <si>
+    <t xml:space="preserve">19:29:52.583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOIEnTiTiIOI</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:33:37.834</t>
   </si>
   <si>
-    <t xml:space="preserve">IOIEnTiTiIOI</t>
-  </si>
-  <si>
     <t xml:space="preserve">19:37:31.569</t>
   </si>
   <si>
@@ -214,6 +223,15 @@
     <t xml:space="preserve">2021.10.12 20.01.47.18</t>
   </si>
   <si>
+    <t xml:space="preserve">20:05:01.185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAYONARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2W</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:05:10.101</t>
   </si>
   <si>
@@ -256,15 +274,18 @@
     <t xml:space="preserve">2021.10.13 20.17.39.998</t>
   </si>
   <si>
+    <t xml:space="preserve">20:40:23.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoWHoW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LuX</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:42:25.171</t>
   </si>
   <si>
-    <t xml:space="preserve">HoWHoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LuX</t>
-  </si>
-  <si>
     <t xml:space="preserve">21:08:54.870</t>
   </si>
   <si>
@@ -307,12 +328,15 @@
     <t xml:space="preserve">2021.10.14 11.11.57.515</t>
   </si>
   <si>
+    <t xml:space="preserve">13:33:03.794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZloiDemon</t>
+  </si>
+  <si>
     <t xml:space="preserve">13:35:40.331</t>
   </si>
   <si>
-    <t xml:space="preserve">ZloiDemon</t>
-  </si>
-  <si>
     <t xml:space="preserve">16:08:20.903</t>
   </si>
   <si>
@@ -361,6 +385,9 @@
     <t xml:space="preserve">2021.10.14 18.34.28.329</t>
   </si>
   <si>
+    <t xml:space="preserve">20:30:50.235</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:36:13.337</t>
   </si>
   <si>
@@ -376,6 +403,12 @@
     <t xml:space="preserve">2021.10.15 12.45.20.733</t>
   </si>
   <si>
+    <t xml:space="preserve">16:41:52.985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VaIPaul</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:57:17.991</t>
   </si>
   <si>
@@ -385,15 +418,21 @@
     <t xml:space="preserve">2021.10.16 01.04.09.036</t>
   </si>
   <si>
+    <t xml:space="preserve">01:31:13.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdMiRaLHAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:31:47.632</t>
   </si>
   <si>
-    <t xml:space="preserve">AdMiRaLHAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021.10.16 19.46.39.168</t>
   </si>
   <si>
+    <t xml:space="preserve">21:07:05.272</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:10:33.758</t>
   </si>
   <si>
@@ -427,6 +466,9 @@
     <t xml:space="preserve">2021.10.17 12.22.04.836</t>
   </si>
   <si>
+    <t xml:space="preserve">12:54:02.304</t>
+  </si>
+  <si>
     <t xml:space="preserve">12:54:29.171</t>
   </si>
   <si>
@@ -484,21 +526,24 @@
     <t xml:space="preserve">2021.10.17 18.28.44.3</t>
   </si>
   <si>
+    <t xml:space="preserve">18:35:10.392</t>
+  </si>
+  <si>
     <t xml:space="preserve">18:37:21.574</t>
   </si>
   <si>
     <t xml:space="preserve">2021.10.17 19.09.50.527</t>
   </si>
   <si>
+    <t xml:space="preserve">19:37:22.272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PromptoArgentum</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:39:34.772</t>
   </si>
   <si>
-    <t xml:space="preserve">PromptoArgentum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2W</t>
-  </si>
-  <si>
     <t xml:space="preserve">19:55:57.600</t>
   </si>
   <si>
@@ -538,12 +583,15 @@
     <t xml:space="preserve">2021.10.18 00.16.56.613</t>
   </si>
   <si>
+    <t xml:space="preserve">01:46:10.482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenaderr</t>
+  </si>
+  <si>
     <t xml:space="preserve">01:51:47.267</t>
   </si>
   <si>
-    <t xml:space="preserve">Grenaderr</t>
-  </si>
-  <si>
     <t xml:space="preserve">01:54:08.686</t>
   </si>
   <si>
@@ -556,6 +604,9 @@
     <t xml:space="preserve">2021.10.18 19.05.46.07</t>
   </si>
   <si>
+    <t xml:space="preserve">19:29:02.439</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:23:01.604</t>
   </si>
   <si>
@@ -601,6 +652,9 @@
     <t xml:space="preserve">2021.10.19 20.12.22.373</t>
   </si>
   <si>
+    <t xml:space="preserve">20:34:50.863</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:50:43.136</t>
   </si>
   <si>
@@ -631,6 +685,9 @@
     <t xml:space="preserve">2021.10.20 12.45.58.776</t>
   </si>
   <si>
+    <t xml:space="preserve">13:24:22.254</t>
+  </si>
+  <si>
     <t xml:space="preserve">13:25:55.172</t>
   </si>
   <si>
@@ -652,6 +709,9 @@
     <t xml:space="preserve">2021.10.20 15.51.24.783</t>
   </si>
   <si>
+    <t xml:space="preserve">16:24:05.579</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:24:45.860</t>
   </si>
   <si>
@@ -676,12 +736,15 @@
     <t xml:space="preserve">2021.10.20 19.08.52.51</t>
   </si>
   <si>
+    <t xml:space="preserve">19:13:37.693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redovner</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:17:56.543</t>
   </si>
   <si>
-    <t xml:space="preserve">redovner</t>
-  </si>
-  <si>
     <t xml:space="preserve">19:48:52.959</t>
   </si>
   <si>
@@ -763,6 +826,9 @@
     <t xml:space="preserve">2021.10.21 15.54.09.878</t>
   </si>
   <si>
+    <t xml:space="preserve">16:06:48.557</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:08:05.957</t>
   </si>
   <si>
@@ -778,12 +844,15 @@
     <t xml:space="preserve">2021.10.21 17.04.47.538</t>
   </si>
   <si>
+    <t xml:space="preserve">17:52:40.358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigBoomManRUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">18:05:08.415</t>
   </si>
   <si>
-    <t xml:space="preserve">BigBoomManRUS</t>
-  </si>
-  <si>
     <t xml:space="preserve">18:13:17.470</t>
   </si>
   <si>
@@ -808,6 +877,9 @@
     <t xml:space="preserve">2021.10.22 11.38.06.046</t>
   </si>
   <si>
+    <t xml:space="preserve">14:56:28.378</t>
+  </si>
+  <si>
     <t xml:space="preserve">15:08:12.136</t>
   </si>
   <si>
@@ -847,6 +919,9 @@
     <t xml:space="preserve">2021.10.22 19.20.49.618</t>
   </si>
   <si>
+    <t xml:space="preserve">19:40:26.032</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:48:50.737</t>
   </si>
   <si>
@@ -901,6 +976,12 @@
     <t xml:space="preserve">2021.10.23 13.44.57.731</t>
   </si>
   <si>
+    <t xml:space="preserve">14:56:57.624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urragan</t>
+  </si>
+  <si>
     <t xml:space="preserve">15:24:49.258</t>
   </si>
   <si>
@@ -922,9 +1003,18 @@
     <t xml:space="preserve">16:06:46.791</t>
   </si>
   <si>
+    <t xml:space="preserve">2021.10.24 10.49.14.185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:09:14.811</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021.10.24 15.24.50.652</t>
   </si>
   <si>
+    <t xml:space="preserve">15:34:51.458</t>
+  </si>
+  <si>
     <t xml:space="preserve">15:38:37.509</t>
   </si>
   <si>
@@ -937,6 +1027,12 @@
     <t xml:space="preserve">2021.10.24 18.28.25.416</t>
   </si>
   <si>
+    <t xml:space="preserve">19:08:49.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HitThatJive</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:15:23.160</t>
   </si>
   <si>
@@ -949,12 +1045,18 @@
     <t xml:space="preserve">2021.10.24 21.25.28.389</t>
   </si>
   <si>
+    <t xml:space="preserve">21:43:54.262</t>
+  </si>
+  <si>
     <t xml:space="preserve">21:59:07.719</t>
   </si>
   <si>
     <t xml:space="preserve">2021.10.25 20.32.59.505</t>
   </si>
   <si>
+    <t xml:space="preserve">20:39:31.433</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:41:33.135</t>
   </si>
   <si>
@@ -970,12 +1072,21 @@
     <t xml:space="preserve">2021.10.26 11.19.28.337</t>
   </si>
   <si>
+    <t xml:space="preserve">11:32:38.441</t>
+  </si>
+  <si>
     <t xml:space="preserve">12:52:53.480</t>
   </si>
   <si>
     <t xml:space="preserve">2021.10.26 14.59.40.402</t>
   </si>
   <si>
+    <t xml:space="preserve">16:31:40.651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIGEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:31:49.831</t>
   </si>
   <si>
@@ -988,9 +1099,6 @@
     <t xml:space="preserve">16:36:59.792</t>
   </si>
   <si>
-    <t xml:space="preserve">RIGEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">16:40:16.568</t>
   </si>
   <si>
@@ -1000,6 +1108,9 @@
     <t xml:space="preserve">2021.10.26 18.09.48.501</t>
   </si>
   <si>
+    <t xml:space="preserve">19:49:48.891</t>
+  </si>
+  <si>
     <t xml:space="preserve">19:54:08.826</t>
   </si>
   <si>
@@ -1018,9 +1129,6 @@
     <t xml:space="preserve">22:00:21.103</t>
   </si>
   <si>
-    <t xml:space="preserve">VaIPaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">22:02:27.604</t>
   </si>
   <si>
@@ -1030,6 +1138,12 @@
     <t xml:space="preserve">2021.10.27 19.59.41.953</t>
   </si>
   <si>
+    <t xml:space="preserve">20:20:56.294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katrine69</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:45:37.487</t>
   </si>
   <si>
@@ -1045,12 +1159,15 @@
     <t xml:space="preserve">2021.10.28 12.15.04.247</t>
   </si>
   <si>
+    <t xml:space="preserve">12:45:09.607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AndreiGo</t>
+  </si>
+  <si>
     <t xml:space="preserve">12:46:19.791</t>
   </si>
   <si>
-    <t xml:space="preserve">AndreiGo</t>
-  </si>
-  <si>
     <t xml:space="preserve">12:48:09.409</t>
   </si>
   <si>
@@ -1075,6 +1192,9 @@
     <t xml:space="preserve">2021.10.28 15.57.43.024</t>
   </si>
   <si>
+    <t xml:space="preserve">16:20:09.774</t>
+  </si>
+  <si>
     <t xml:space="preserve">16:20:50.859</t>
   </si>
   <si>
@@ -1109,6 +1229,15 @@
   </si>
   <si>
     <t xml:space="preserve">16:44:09.486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021.10.28 22.57.25.396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:08:17.601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BenedIct</t>
   </si>
 </sst>
 </file>
@@ -1218,13 +1347,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O246"/>
+  <dimension ref="A1:O282"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -1279,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>6813</v>
+        <v>4744</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -1296,7 +1425,7 @@
       </c>
       <c r="H2" s="2" t="n">
         <f aca="false">SUM(G2:G1048576)</f>
-        <v>1843</v>
+        <v>2130</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>13</v>
@@ -1328,7 +1457,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>9593</v>
+        <v>6813</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>11</v>
@@ -1345,30 +1474,30 @@
       </c>
       <c r="I3" s="3" t="n">
         <f aca="false">COUNTIF($E2:$E1048576,I$2)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E209,J$2)</f>
-        <v>88</v>
+        <f aca="false">COUNTIF($E2:$E1048576,J$2)</f>
+        <v>126</v>
       </c>
       <c r="K3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E209,K$2)</f>
-        <v>41</v>
+        <f aca="false">COUNTIF($E2:$E1048576,K$2)</f>
+        <v>49</v>
       </c>
       <c r="L3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E209,L$2)</f>
-        <v>4</v>
+        <f aca="false">COUNTIF($E2:$E1048576,L$2)</f>
+        <v>5</v>
       </c>
       <c r="M3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E209,M$2)</f>
-        <v>11</v>
+        <f aca="false">COUNTIF($E2:$E1048576,M$2)</f>
+        <v>13</v>
       </c>
       <c r="N3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E209,N$2)</f>
-        <v>5</v>
+        <f aca="false">COUNTIF($E2:$E1048576,N$2)</f>
+        <v>6</v>
       </c>
       <c r="O3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E209,O$2)</f>
+        <f aca="false">COUNTIF($E2:$E1048576,O$2)</f>
         <v>2</v>
       </c>
     </row>
@@ -1380,10 +1509,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5793</v>
+        <v>9593</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>12</v>
@@ -1401,13 +1530,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5793</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>11053</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>12</v>
@@ -1428,10 +1557,10 @@
         <v>23</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5048</v>
+        <v>11053</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>12</v>
@@ -1449,13 +1578,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5048</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>6271</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>12</v>
@@ -1476,10 +1605,10 @@
         <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>17801</v>
+        <v>6271</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>12</v>
@@ -1500,10 +1629,10 @@
         <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4996</v>
+        <v>17801</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>12</v>
@@ -1524,20 +1653,20 @@
         <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>9624</v>
+        <v>4996</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">IF(E10="xIDx",0,F10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,23 +1674,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>9624</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>6664</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">IF(E11="xIDx",0,F11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,13 +1698,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>6664</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>3295</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>12</v>
@@ -1596,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>4977</v>
+        <v>3295</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>12</v>
@@ -1620,10 +1749,10 @@
         <v>34</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>7388</v>
+        <v>4977</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>12</v>
@@ -1644,10 +1773,10 @@
         <v>35</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>16094</v>
+        <v>7388</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>12</v>
@@ -1668,10 +1797,10 @@
         <v>36</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1318</v>
+        <v>16094</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>12</v>
@@ -1692,10 +1821,10 @@
         <v>37</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>9491</v>
+        <v>1318</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>12</v>
@@ -1716,10 +1845,10 @@
         <v>38</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>621</v>
+        <v>9491</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>12</v>
@@ -1734,16 +1863,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" s="0" t="n">
-        <v>3011</v>
+        <v>621</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>12</v>
@@ -1758,16 +1887,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>5294</v>
+        <v>1239</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>12</v>
@@ -1782,16 +1911,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>14490</v>
+        <v>3011</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>12</v>
@@ -1806,16 +1935,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>18440</v>
+        <v>5294</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>12</v>
@@ -1830,64 +1959,64 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>38165</v>
+        <v>14490</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="0" t="n">
         <f aca="false">IF(E23="xIDx",0,F23)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>7440</v>
+        <v>18440</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="0" t="n">
         <f aca="false">IF(E24="xIDx",0,F24)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>38165</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>22906</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>14</v>
@@ -1902,16 +2031,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>47358</v>
+        <v>7440</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>14</v>
@@ -1926,16 +2055,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>57613</v>
+        <v>22906</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>14</v>
@@ -1950,16 +2079,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>2061</v>
+        <v>47358</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>14</v>
@@ -1974,16 +2103,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>5677</v>
+        <v>57613</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>14</v>
@@ -1998,256 +2127,256 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>11036</v>
+        <v>2061</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">IF(E30="xIDx",0,F30)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="C31" s="0" t="n">
-        <v>18709</v>
+        <v>5677</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">IF(E31="xIDx",0,F31)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2650</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>-40</v>
+        <v>12</v>
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">IF(E32="xIDx",0,F32)</f>
-        <v>-40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>21689</v>
+        <v>11036</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>-40</v>
+        <v>12</v>
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">IF(E33="xIDx",0,F33)</f>
-        <v>-40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>3885</v>
+        <v>18709</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>-40</v>
+        <v>12</v>
       </c>
       <c r="G34" s="0" t="n">
         <f aca="false">IF(E34="xIDx",0,F34)</f>
-        <v>-40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>9605</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>5288</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F35" s="0" t="n">
-        <v>12</v>
+        <v>-40</v>
       </c>
       <c r="G35" s="0" t="n">
         <f aca="false">IF(E35="xIDx",0,F35)</f>
-        <v>12</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>21689</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>20122</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F36" s="0" t="n">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">IF(E36="xIDx",0,F36)</f>
-        <v>10</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3885</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>2598</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F37" s="0" t="n">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="G37" s="0" t="n">
         <f aca="false">IF(E37="xIDx",0,F37)</f>
-        <v>10</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>4512</v>
+        <v>5003</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="0" t="n">
         <f aca="false">IF(E38="xIDx",0,F38)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>5288</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>5134</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F39" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="0" t="n">
         <f aca="false">IF(E39="xIDx",0,F39)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>73</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>5440</v>
+        <v>20122</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>14</v>
@@ -2262,16 +2391,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>10131</v>
+        <v>2598</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>14</v>
@@ -2286,91 +2415,91 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>3313</v>
+        <v>4512</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42" s="0" t="n">
         <f aca="false">IF(E42="xIDx",0,F42)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>8052</v>
+        <v>5134</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G43" s="0" t="n">
         <f aca="false">IF(E43="xIDx",0,F43)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>4142</v>
+        <v>5440</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44" s="0" t="n">
         <f aca="false">IF(E44="xIDx",0,F44)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>33113</v>
+        <v>10131</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>10</v>
@@ -2382,67 +2511,67 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>38247</v>
+        <v>3313</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="0" t="n">
         <f aca="false">IF(E46="xIDx",0,F46)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>52662</v>
+        <v>8052</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="0" t="n">
         <f aca="false">IF(E47="xIDx",0,F47)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1616</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>53717</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>12</v>
@@ -2454,139 +2583,139 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>58633</v>
+        <v>4142</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49" s="0" t="n">
         <f aca="false">IF(E49="xIDx",0,F49)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>33113</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>60254</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G50" s="0" t="n">
         <f aca="false">IF(E50="xIDx",0,F50)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>38247</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>467</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G51" s="0" t="n">
         <f aca="false">IF(E51="xIDx",0,F51)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>32731</v>
+        <v>52662</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G52" s="0" t="n">
         <f aca="false">IF(E52="xIDx",0,F52)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>53717</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>7953</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="E53" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G53" s="0" t="n">
         <f aca="false">IF(E53="xIDx",0,F53)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>3188</v>
+        <v>58633</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>10</v>
@@ -2598,136 +2727,136 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>4753</v>
+        <v>60254</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" s="0" t="n">
         <f aca="false">IF(E55="xIDx",0,F55)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>16196</v>
+        <v>467</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56" s="0" t="n">
         <f aca="false">IF(E56="xIDx",0,F56)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>4419</v>
+        <v>32731</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G57" s="0" t="n">
         <f aca="false">IF(E57="xIDx",0,F57)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>43040</v>
+        <v>2631</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G58" s="0" t="n">
         <f aca="false">IF(E58="xIDx",0,F58)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>50326</v>
+        <v>7953</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G59" s="0" t="n">
         <f aca="false">IF(E59="xIDx",0,F59)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1802</v>
+        <v>3188</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>14</v>
@@ -2742,16 +2871,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>4753</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>17403</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>14</v>
@@ -2766,13 +2895,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>108</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>19692</v>
+        <v>16196</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>109</v>
@@ -2790,16 +2919,16 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>21932</v>
+        <v>4419</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>14</v>
@@ -2814,16 +2943,16 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>22826</v>
+        <v>43040</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>14</v>
@@ -2838,16 +2967,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>113</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>12028</v>
+        <v>50326</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>14</v>
@@ -2862,16 +2991,16 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>32368</v>
+        <v>1802</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>14</v>
@@ -2886,16 +3015,16 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>53987</v>
+        <v>17403</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>14</v>
@@ -2910,16 +3039,16 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>19692</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>58146</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>14</v>
@@ -2934,16 +3063,16 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>4518</v>
+        <v>21932</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>14</v>
@@ -2958,16 +3087,16 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>39379</v>
+        <v>22826</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>14</v>
@@ -2982,16 +3111,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>68306</v>
+        <v>3794</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>14</v>
@@ -3006,16 +3135,16 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>12028</v>
+      </c>
+      <c r="D72" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>93095</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>14</v>
@@ -3030,784 +3159,784 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>3796</v>
+        <v>32368</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G73" s="0" t="n">
         <f aca="false">IF(E73="xIDx",0,F73)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>4051</v>
+        <v>14523</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74" s="0" t="n">
         <f aca="false">IF(E74="xIDx",0,F74)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>8625</v>
+        <v>53987</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G75" s="0" t="n">
         <f aca="false">IF(E75="xIDx",0,F75)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>4995</v>
+        <v>58146</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G76" s="0" t="n">
         <f aca="false">IF(E76="xIDx",0,F76)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>9740</v>
+        <v>3774</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G77" s="0" t="n">
         <f aca="false">IF(E77="xIDx",0,F77)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="C78" s="0" t="n">
-        <v>4314</v>
+        <v>4518</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G78" s="0" t="n">
         <f aca="false">IF(E78="xIDx",0,F78)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>7584</v>
+        <v>13079</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G79" s="0" t="n">
         <f aca="false">IF(E79="xIDx",0,F79)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>1268</v>
+        <v>39379</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G80" s="0" t="n">
         <f aca="false">IF(E80="xIDx",0,F80)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>3383</v>
+        <v>68306</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G81" s="0" t="n">
         <f aca="false">IF(E81="xIDx",0,F81)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>5849</v>
+        <v>93095</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>140</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G82" s="0" t="n">
         <f aca="false">IF(E82="xIDx",0,F82)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>7637</v>
+        <v>3796</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G83" s="0" t="n">
         <f aca="false">IF(E83="xIDx",0,F83)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>8533</v>
+        <v>4051</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G84" s="0" t="n">
         <f aca="false">IF(E84="xIDx",0,F84)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>8625</v>
+      </c>
+      <c r="D85" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="0" t="n">
-        <v>12515</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="E85" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G85" s="0" t="n">
         <f aca="false">IF(E85="xIDx",0,F85)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>3013</v>
+        <v>3456</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G86" s="0" t="n">
         <f aca="false">IF(E86="xIDx",0,F86)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>10028</v>
+        <v>4995</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G87" s="0" t="n">
         <f aca="false">IF(E87="xIDx",0,F87)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>2056</v>
+        <v>9740</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G88" s="0" t="n">
         <f aca="false">IF(E88="xIDx",0,F88)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B89" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>4314</v>
+      </c>
+      <c r="D89" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="0" t="n">
-        <v>5368</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="E89" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G89" s="0" t="n">
         <f aca="false">IF(E89="xIDx",0,F89)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="0" t="n">
+        <v>7584</v>
+      </c>
+      <c r="D90" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="0" t="n">
-        <v>12642</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="E90" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G90" s="0" t="n">
         <f aca="false">IF(E90="xIDx",0,F90)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="C91" s="0" t="n">
-        <v>13867</v>
+        <v>1268</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G91" s="0" t="n">
         <f aca="false">IF(E91="xIDx",0,F91)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>28409</v>
+        <v>3383</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G92" s="0" t="n">
         <f aca="false">IF(E92="xIDx",0,F92)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>29602</v>
+        <v>5849</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G93" s="0" t="n">
         <f aca="false">IF(E93="xIDx",0,F93)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>1836</v>
+        <v>7637</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G94" s="0" t="n">
         <f aca="false">IF(E94="xIDx",0,F94)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>2055</v>
+        <v>8533</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G95" s="0" t="n">
         <f aca="false">IF(E95="xIDx",0,F95)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>3308</v>
+        <v>12515</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G96" s="0" t="n">
         <f aca="false">IF(E96="xIDx",0,F96)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>34278</v>
+        <v>3013</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G97" s="0" t="n">
         <f aca="false">IF(E97="xIDx",0,F97)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>62022</v>
+        <v>10028</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G98" s="0" t="n">
         <f aca="false">IF(E98="xIDx",0,F98)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>62654</v>
+        <v>2056</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G99" s="0" t="n">
         <f aca="false">IF(E99="xIDx",0,F99)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>9611</v>
+        <v>5368</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G100" s="0" t="n">
         <f aca="false">IF(E100="xIDx",0,F100)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>14425</v>
+        <v>7767</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G101" s="0" t="n">
         <f aca="false">IF(E101="xIDx",0,F101)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>7028</v>
+        <v>12642</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G102" s="0" t="n">
         <f aca="false">IF(E102="xIDx",0,F102)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>176</v>
-      </c>
       <c r="C103" s="0" t="n">
-        <v>13084</v>
+        <v>7478</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G103" s="0" t="n">
         <f aca="false">IF(E103="xIDx",0,F103)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>3261</v>
+        <v>13867</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G104" s="0" t="n">
         <f aca="false">IF(E104="xIDx",0,F104)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>22254</v>
+        <v>28409</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>14</v>
@@ -3822,16 +3951,16 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>23981</v>
+        <v>29602</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>14</v>
@@ -3846,40 +3975,40 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>181</v>
-      </c>
       <c r="C107" s="0" t="n">
-        <v>24136</v>
+        <v>1836</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G107" s="0" t="n">
         <f aca="false">IF(E107="xIDx",0,F107)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>24658</v>
+        <v>2055</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>14</v>
@@ -3894,19 +4023,19 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>28718</v>
+        <v>3308</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>10</v>
@@ -3918,19 +4047,19 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>79033</v>
+        <v>34278</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>10</v>
@@ -3942,19 +4071,19 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>61286</v>
+        <v>62022</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>10</v>
@@ -3966,19 +4095,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>83650</v>
+        <v>62654</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>10</v>
@@ -3990,163 +4119,163 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>19256</v>
+        <v>8516</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>188</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G113" s="0" t="n">
         <f aca="false">IF(E113="xIDx",0,F113)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>38896</v>
+        <v>9611</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G114" s="0" t="n">
         <f aca="false">IF(E114="xIDx",0,F114)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>41012</v>
+        <v>14425</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>188</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G115" s="0" t="n">
         <f aca="false">IF(E115="xIDx",0,F115)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>6753</v>
+        <v>7028</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G116" s="0" t="n">
         <f aca="false">IF(E116="xIDx",0,F116)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="C117" s="0" t="n">
-        <v>10613</v>
+        <v>13084</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G117" s="0" t="n">
         <f aca="false">IF(E117="xIDx",0,F117)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>19861</v>
+        <v>3810</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G118" s="0" t="n">
         <f aca="false">IF(E118="xIDx",0,F118)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>23380</v>
+        <v>3261</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>10</v>
@@ -4158,19 +4287,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>38782</v>
+        <v>22254</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>10</v>
@@ -4182,67 +4311,67 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>49522</v>
+        <v>23981</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G121" s="0" t="n">
         <f aca="false">IF(E121="xIDx",0,F121)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>68475</v>
+        <v>24136</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G122" s="0" t="n">
         <f aca="false">IF(E122="xIDx",0,F122)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>10235</v>
+        <v>24658</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>10</v>
@@ -4254,40 +4383,40 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B124" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>28718</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C124" s="0" t="n">
-        <v>55898</v>
-      </c>
-      <c r="D124" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="E124" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G124" s="0" t="n">
         <f aca="false">IF(E124="xIDx",0,F124)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="C125" s="0" t="n">
-        <v>13035</v>
+        <v>79033</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>14</v>
@@ -4302,16 +4431,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>9435</v>
+        <v>61286</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>14</v>
@@ -4326,16 +4455,16 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B127" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>83650</v>
+      </c>
+      <c r="D127" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>13216</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>14</v>
@@ -4350,16 +4479,16 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>206</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>4323</v>
+        <v>19256</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>14</v>
@@ -4374,16 +4503,16 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>207</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>9582</v>
+        <v>38896</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>14</v>
@@ -4398,16 +4527,16 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>208</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>11405</v>
+        <v>41012</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>14</v>
@@ -4428,20 +4557,20 @@
         <v>210</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>8552</v>
+        <v>1986</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G131" s="0" t="n">
         <f aca="false">IF(E131="xIDx",0,F131)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4452,10 +4581,10 @@
         <v>211</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>24977</v>
+        <v>6753</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>14</v>
@@ -4476,20 +4605,20 @@
         <v>212</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>32027</v>
+        <v>10613</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G133" s="0" t="n">
         <f aca="false">IF(E133="xIDx",0,F133)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,88 +4626,88 @@
         <v>209</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>14915</v>
+        <v>19861</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G134" s="0" t="n">
         <f aca="false">IF(E134="xIDx",0,F134)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>7554</v>
+        <v>23380</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G135" s="0" t="n">
         <f aca="false">IF(E135="xIDx",0,F135)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>13875</v>
+        <v>38782</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G136" s="0" t="n">
         <f aca="false">IF(E136="xIDx",0,F136)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>16195</v>
+        <v>49522</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F137" s="0" t="n">
         <v>12</v>
@@ -4590,19 +4719,19 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="C138" s="0" t="n">
-        <v>16926</v>
+        <v>68475</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>10</v>
@@ -4614,112 +4743,112 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>22527</v>
+        <v>10235</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G139" s="0" t="n">
         <f aca="false">IF(E139="xIDx",0,F139)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>27864</v>
+        <v>55898</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G140" s="0" t="n">
         <f aca="false">IF(E140="xIDx",0,F140)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>28212</v>
+        <v>8954</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G141" s="0" t="n">
         <f aca="false">IF(E141="xIDx",0,F141)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>6542</v>
+        <v>13035</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G142" s="0" t="n">
         <f aca="false">IF(E142="xIDx",0,F142)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>1067</v>
+        <v>9435</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>14</v>
@@ -4734,16 +4863,16 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>4276</v>
+        <v>13216</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>14</v>
@@ -4758,16 +4887,16 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>6004</v>
+        <v>4323</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>14</v>
@@ -4782,16 +4911,16 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>3217</v>
+        <v>9582</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>14</v>
@@ -4806,16 +4935,16 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>4445</v>
+        <v>11405</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="E147" s="0" t="s">
         <v>14</v>
@@ -4830,16 +4959,16 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>11091</v>
+        <v>3739</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>14</v>
@@ -4854,208 +4983,208 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>1188</v>
+        <v>8552</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>219</v>
+        <v>47</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G149" s="0" t="n">
         <f aca="false">IF(E149="xIDx",0,F149)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>6573</v>
+        <v>24977</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G150" s="0" t="n">
         <f aca="false">IF(E150="xIDx",0,F150)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>8500</v>
+        <v>32027</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G151" s="0" t="n">
         <f aca="false">IF(E151="xIDx",0,F151)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>9949</v>
+        <v>14915</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G152" s="0" t="n">
         <f aca="false">IF(E152="xIDx",0,F152)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B153" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>474</v>
+      </c>
+      <c r="D153" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C153" s="0" t="n">
-        <v>3133</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>240</v>
-      </c>
       <c r="E153" s="0" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G153" s="0" t="n">
         <f aca="false">IF(E153="xIDx",0,F153)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>5454</v>
+        <v>7554</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G154" s="0" t="n">
         <f aca="false">IF(E154="xIDx",0,F154)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>21788</v>
+        <v>13875</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G155" s="0" t="n">
         <f aca="false">IF(E155="xIDx",0,F155)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>24283</v>
+        <v>16195</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G156" s="0" t="n">
         <f aca="false">IF(E156="xIDx",0,F156)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B157" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>16926</v>
+      </c>
+      <c r="D157" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>43526</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>14</v>
@@ -5070,40 +5199,40 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>245</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>71831</v>
+        <v>22527</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G158" s="0" t="n">
         <f aca="false">IF(E158="xIDx",0,F158)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B159" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B159" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="C159" s="0" t="n">
-        <v>15922</v>
+        <v>27864</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>14</v>
@@ -5118,64 +5247,64 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>23129</v>
+        <v>28212</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G160" s="0" t="n">
         <f aca="false">IF(E160="xIDx",0,F160)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>29415</v>
+        <v>6542</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G161" s="0" t="n">
         <f aca="false">IF(E161="xIDx",0,F161)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B162" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>1067</v>
+      </c>
+      <c r="D162" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="C162" s="0" t="n">
-        <v>29729</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>103</v>
       </c>
       <c r="E162" s="0" t="s">
         <v>14</v>
@@ -5190,160 +5319,160 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>252</v>
-      </c>
       <c r="C163" s="0" t="n">
-        <v>4835</v>
+        <v>4276</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G163" s="0" t="n">
         <f aca="false">IF(E163="xIDx",0,F163)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>1446</v>
+        <v>6004</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G164" s="0" t="n">
         <f aca="false">IF(E164="xIDx",0,F164)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>7605</v>
+        <v>3217</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G165" s="0" t="n">
         <f aca="false">IF(E165="xIDx",0,F165)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>15561</v>
+        <v>4445</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G166" s="0" t="n">
         <f aca="false">IF(E166="xIDx",0,F166)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>3191</v>
+        <v>11091</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G167" s="0" t="n">
         <f aca="false">IF(E167="xIDx",0,F167)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>6188</v>
+        <v>1188</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G168" s="0" t="n">
         <f aca="false">IF(E168="xIDx",0,F168)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>7293</v>
+        <v>6573</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>16</v>
@@ -5358,139 +5487,139 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>5184</v>
+        <v>8500</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G170" s="0" t="n">
         <f aca="false">IF(E170="xIDx",0,F170)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>9614</v>
+        <v>9949</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G171" s="0" t="n">
         <f aca="false">IF(E171="xIDx",0,F171)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>3133</v>
+      </c>
+      <c r="D172" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B172" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C172" s="0" t="n">
-        <v>1384</v>
-      </c>
-      <c r="D172" s="0" t="s">
-        <v>263</v>
-      </c>
       <c r="E172" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G172" s="0" t="n">
         <f aca="false">IF(E172="xIDx",0,F172)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>5454</v>
+      </c>
+      <c r="D173" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B173" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="C173" s="0" t="n">
-        <v>9762</v>
-      </c>
-      <c r="D173" s="0" t="s">
-        <v>263</v>
-      </c>
       <c r="E173" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G173" s="0" t="n">
         <f aca="false">IF(E173="xIDx",0,F173)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>12588</v>
+        <v>21788</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G174" s="0" t="n">
         <f aca="false">IF(E174="xIDx",0,F174)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>1117</v>
+        <v>24283</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>10</v>
@@ -5502,19 +5631,19 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>9805</v>
+        <v>43526</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F176" s="0" t="n">
         <v>10</v>
@@ -5526,67 +5655,67 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>19039</v>
+        <v>71831</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G177" s="0" t="n">
         <f aca="false">IF(E177="xIDx",0,F177)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>23359</v>
+        <v>5225</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G178" s="0" t="n">
         <f aca="false">IF(E178="xIDx",0,F178)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>36307</v>
+        <v>15922</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F179" s="0" t="n">
         <v>10</v>
@@ -5598,424 +5727,424 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>576</v>
+        <v>23129</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G180" s="0" t="n">
         <f aca="false">IF(E180="xIDx",0,F180)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>4606</v>
+        <v>29415</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>271</v>
+        <v>117</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G181" s="0" t="n">
         <f aca="false">IF(E181="xIDx",0,F181)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>6247</v>
+        <v>29729</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G182" s="0" t="n">
         <f aca="false">IF(E182="xIDx",0,F182)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B183" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B183" s="0" t="s">
-        <v>278</v>
-      </c>
       <c r="C183" s="0" t="n">
-        <v>14211</v>
+        <v>779</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G183" s="0" t="n">
         <f aca="false">IF(E183="xIDx",0,F183)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>16076</v>
+        <v>4835</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G184" s="0" t="n">
         <f aca="false">IF(E184="xIDx",0,F184)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>5327</v>
+        <v>1446</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G185" s="0" t="n">
         <f aca="false">IF(E185="xIDx",0,F185)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>9416</v>
+        <v>7605</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G186" s="0" t="n">
         <f aca="false">IF(E186="xIDx",0,F186)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>28422</v>
+        <v>15561</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G187" s="0" t="n">
         <f aca="false">IF(E187="xIDx",0,F187)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>31077</v>
+        <v>3191</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G188" s="0" t="n">
         <f aca="false">IF(E188="xIDx",0,F188)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>33093</v>
+        <v>6188</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G189" s="0" t="n">
         <f aca="false">IF(E189="xIDx",0,F189)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>67067</v>
+        <v>7293</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G190" s="0" t="n">
         <f aca="false">IF(E190="xIDx",0,F190)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>41318</v>
+        <v>9542</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G191" s="0" t="n">
         <f aca="false">IF(E191="xIDx",0,F191)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>41977</v>
+        <v>5184</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G192" s="0" t="n">
         <f aca="false">IF(E192="xIDx",0,F192)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>56930</v>
+        <v>9614</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G193" s="0" t="n">
         <f aca="false">IF(E193="xIDx",0,F193)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>64343</v>
+        <v>1384</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G194" s="0" t="n">
         <f aca="false">IF(E194="xIDx",0,F194)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>19315</v>
+        <v>9762</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G195" s="0" t="n">
         <f aca="false">IF(E195="xIDx",0,F195)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>25563</v>
+        <v>12588</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G196" s="0" t="n">
         <f aca="false">IF(E196="xIDx",0,F196)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B197" s="0" t="s">
-        <v>296</v>
-      </c>
       <c r="C197" s="0" t="n">
-        <v>8143</v>
+        <v>1117</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="E197" s="0" t="s">
         <v>13</v>
@@ -6030,16 +6159,16 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>18704</v>
+        <v>9805</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="E198" s="0" t="s">
         <v>13</v>
@@ -6054,40 +6183,40 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>23923</v>
+        <v>19039</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E199" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G199" s="0" t="n">
         <f aca="false">IF(E199="xIDx",0,F199)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>1646</v>
+        <v>23359</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>13</v>
@@ -6102,67 +6231,67 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>2123</v>
+        <v>36307</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G201" s="0" t="n">
         <f aca="false">IF(E201="xIDx",0,F201)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>4724</v>
+        <v>1831</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G202" s="0" t="n">
         <f aca="false">IF(E202="xIDx",0,F202)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>8482</v>
+        <v>576</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F203" s="0" t="n">
         <v>5</v>
@@ -6174,136 +6303,136 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>10399</v>
+        <v>4606</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G204" s="0" t="n">
         <f aca="false">IF(E204="xIDx",0,F204)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>13092</v>
+        <v>6247</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G205" s="0" t="n">
         <f aca="false">IF(E205="xIDx",0,F205)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>59657</v>
+        <v>14211</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G206" s="0" t="n">
         <f aca="false">IF(E206="xIDx",0,F206)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>11244</v>
+        <v>16076</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G207" s="0" t="n">
         <f aca="false">IF(E207="xIDx",0,F207)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>12438</v>
+        <v>5327</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G208" s="0" t="n">
         <f aca="false">IF(E208="xIDx",0,F208)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>5107</v>
+        <v>9416</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>14</v>
@@ -6318,16 +6447,16 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>38363</v>
+        <v>28422</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>14</v>
@@ -6342,16 +6471,16 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>20391</v>
+        <v>31077</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>14</v>
@@ -6366,19 +6495,19 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>9047</v>
+        <v>33093</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F212" s="0" t="n">
         <v>10</v>
@@ -6390,43 +6519,43 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>22459</v>
+        <v>67067</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G213" s="0" t="n">
         <f aca="false">IF(E213="xIDx",0,F213)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>37324</v>
+        <v>41318</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F214" s="0" t="n">
         <v>10</v>
@@ -6438,19 +6567,19 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>41403</v>
+        <v>41977</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F215" s="0" t="n">
         <v>10</v>
@@ -6462,19 +6591,19 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C216" s="0" t="n">
-        <v>65487</v>
+        <v>56930</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F216" s="0" t="n">
         <v>10</v>
@@ -6486,16 +6615,16 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>9653</v>
+        <v>64343</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>14</v>
@@ -6510,40 +6639,40 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>14927</v>
+        <v>26931</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>59</v>
+        <v>319</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>-40</v>
+        <v>5</v>
       </c>
       <c r="G218" s="0" t="n">
         <f aca="false">IF(E218="xIDx",0,F218)</f>
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>5716</v>
+        <v>19315</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="E219" s="0" t="s">
         <v>14</v>
@@ -6558,16 +6687,16 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>15062</v>
+        <v>25563</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="E220" s="0" t="s">
         <v>14</v>
@@ -6582,43 +6711,43 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>4896</v>
+        <v>8143</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G221" s="0" t="n">
         <f aca="false">IF(E221="xIDx",0,F221)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B222" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B222" s="0" t="s">
-        <v>331</v>
-      </c>
       <c r="C222" s="0" t="n">
-        <v>56963</v>
+        <v>18704</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F222" s="0" t="n">
         <v>10</v>
@@ -6630,19 +6759,19 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>75965</v>
+        <v>23923</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F223" s="0" t="n">
         <v>10</v>
@@ -6654,16 +6783,16 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>6747</v>
+        <v>678</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E224" s="0" t="s">
         <v>14</v>
@@ -6678,19 +6807,19 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>6446</v>
+        <v>1020</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>338</v>
+        <v>13</v>
       </c>
       <c r="F225" s="0" t="n">
         <v>12</v>
@@ -6702,88 +6831,88 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>30528</v>
+        <v>1646</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G226" s="0" t="n">
         <f aca="false">IF(E226="xIDx",0,F226)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>4896</v>
+        <v>2123</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G227" s="0" t="n">
         <f aca="false">IF(E227="xIDx",0,F227)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C228" s="0" t="n">
-        <v>10035</v>
+        <v>4724</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G228" s="0" t="n">
         <f aca="false">IF(E228="xIDx",0,F228)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C229" s="0" t="n">
-        <v>17775</v>
+        <v>2559</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E229" s="0" t="s">
         <v>14</v>
@@ -6798,64 +6927,64 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>21185</v>
+        <v>8482</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G230" s="0" t="n">
         <f aca="false">IF(E230="xIDx",0,F230)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C231" s="0" t="n">
-        <v>24595</v>
+        <v>10399</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G231" s="0" t="n">
         <f aca="false">IF(E231="xIDx",0,F231)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C232" s="0" t="n">
-        <v>28246</v>
+        <v>13092</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>342</v>
+        <v>201</v>
       </c>
       <c r="E232" s="0" t="s">
         <v>14</v>
@@ -6873,16 +7002,16 @@
         <v>340</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>31076</v>
+        <v>48102</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>342</v>
+        <v>89</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F233" s="0" t="n">
         <v>10</v>
@@ -6897,16 +7026,16 @@
         <v>340</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>39057</v>
+        <v>59657</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>10</v>
@@ -6918,112 +7047,112 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C235" s="0" t="n">
-        <v>6599</v>
+        <v>8419</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F235" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G235" s="0" t="n">
         <f aca="false">IF(E235="xIDx",0,F235)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C236" s="0" t="n">
-        <v>15470</v>
+        <v>11244</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F236" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G236" s="0" t="n">
         <f aca="false">IF(E236="xIDx",0,F236)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>19558</v>
+        <v>12438</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F237" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G237" s="0" t="n">
         <f aca="false">IF(E237="xIDx",0,F237)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>21044</v>
+        <v>5107</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F238" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G238" s="0" t="n">
         <f aca="false">IF(E238="xIDx",0,F238)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C239" s="0" t="n">
-        <v>29645</v>
+        <v>38363</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="E239" s="0" t="s">
         <v>14</v>
@@ -7038,67 +7167,67 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B240" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B240" s="0" t="s">
-        <v>356</v>
-      </c>
       <c r="C240" s="0" t="n">
-        <v>30362</v>
+        <v>15045</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F240" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G240" s="0" t="n">
         <f aca="false">IF(E240="xIDx",0,F240)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>53673</v>
+        <v>20391</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G241" s="0" t="n">
         <f aca="false">IF(E241="xIDx",0,F241)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C242" s="0" t="n">
-        <v>3872</v>
+        <v>8121</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F242" s="0" t="n">
         <v>10</v>
@@ -7110,19 +7239,19 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C243" s="0" t="n">
-        <v>22813</v>
+        <v>9047</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F243" s="0" t="n">
         <v>10</v>
@@ -7134,43 +7263,43 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C244" s="0" t="n">
-        <v>25190</v>
+        <v>22459</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F244" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G244" s="0" t="n">
         <f aca="false">IF(E244="xIDx",0,F244)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C245" s="0" t="n">
-        <v>27448</v>
+        <v>37324</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F245" s="0" t="n">
         <v>10</v>
@@ -7182,25 +7311,889 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C246" s="0" t="n">
-        <v>54145</v>
+        <v>41403</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>103</v>
+        <v>354</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F246" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G246" s="0" t="n">
         <f aca="false">IF(E246="xIDx",0,F246)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B247" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>65487</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G247" s="0" t="n">
+        <f aca="false">IF(E247="xIDx",0,F247)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>569</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G248" s="0" t="n">
+        <f aca="false">IF(E248="xIDx",0,F248)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B249" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>9653</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G249" s="0" t="n">
+        <f aca="false">IF(E249="xIDx",0,F249)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B250" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>14927</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>-40</v>
+      </c>
+      <c r="G250" s="0" t="n">
+        <f aca="false">IF(E250="xIDx",0,F250)</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B251" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>5716</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <f aca="false">IF(E251="xIDx",0,F251)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>15062</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E252" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G252" s="0" t="n">
+        <f aca="false">IF(E252="xIDx",0,F252)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>4896</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G253" s="0" t="n">
+        <f aca="false">IF(E253="xIDx",0,F253)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B254" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>56963</v>
+      </c>
+      <c r="D254" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E254" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G254" s="0" t="n">
+        <f aca="false">IF(E254="xIDx",0,F254)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B255" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>75965</v>
+      </c>
+      <c r="D255" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E255" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G255" s="0" t="n">
+        <f aca="false">IF(E255="xIDx",0,F255)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>6747</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E256" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G256" s="0" t="n">
+        <f aca="false">IF(E256="xIDx",0,F256)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>11449</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E257" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G257" s="0" t="n">
+        <f aca="false">IF(E257="xIDx",0,F257)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B258" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>6446</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="F258" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G258" s="0" t="n">
+        <f aca="false">IF(E258="xIDx",0,F258)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B259" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>30528</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G259" s="0" t="n">
+        <f aca="false">IF(E259="xIDx",0,F259)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B260" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>797</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G260" s="0" t="n">
+        <f aca="false">IF(E260="xIDx",0,F260)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>4896</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E261" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G261" s="0" t="n">
+        <f aca="false">IF(E261="xIDx",0,F261)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B262" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>10035</v>
+      </c>
+      <c r="D262" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E262" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G262" s="0" t="n">
+        <f aca="false">IF(E262="xIDx",0,F262)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B263" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>17775</v>
+      </c>
+      <c r="D263" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E263" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G263" s="0" t="n">
+        <f aca="false">IF(E263="xIDx",0,F263)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B264" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>21185</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E264" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G264" s="0" t="n">
+        <f aca="false">IF(E264="xIDx",0,F264)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B265" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>24595</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E265" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G265" s="0" t="n">
+        <f aca="false">IF(E265="xIDx",0,F265)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>28246</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G266" s="0" t="n">
+        <f aca="false">IF(E266="xIDx",0,F266)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>31076</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G267" s="0" t="n">
+        <f aca="false">IF(E267="xIDx",0,F267)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>39057</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G268" s="0" t="n">
+        <f aca="false">IF(E268="xIDx",0,F268)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>2977</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G269" s="0" t="n">
+        <f aca="false">IF(E269="xIDx",0,F269)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>6599</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G270" s="0" t="n">
+        <f aca="false">IF(E270="xIDx",0,F270)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>15470</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G271" s="0" t="n">
+        <f aca="false">IF(E271="xIDx",0,F271)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>19558</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F272" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G272" s="0" t="n">
+        <f aca="false">IF(E272="xIDx",0,F272)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>21044</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G273" s="0" t="n">
+        <f aca="false">IF(E273="xIDx",0,F273)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>29645</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G274" s="0" t="n">
+        <f aca="false">IF(E274="xIDx",0,F274)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>30362</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G275" s="0" t="n">
+        <f aca="false">IF(E275="xIDx",0,F275)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>53673</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G276" s="0" t="n">
+        <f aca="false">IF(E276="xIDx",0,F276)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>3872</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F277" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <f aca="false">IF(E277="xIDx",0,F277)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>22813</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F278" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G278" s="0" t="n">
+        <f aca="false">IF(E278="xIDx",0,F278)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B279" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>25190</v>
+      </c>
+      <c r="D279" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E279" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G279" s="0" t="n">
+        <f aca="false">IF(E279="xIDx",0,F279)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>27448</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F280" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <f aca="false">IF(E280="xIDx",0,F280)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>54145</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <f aca="false">IF(E281="xIDx",0,F281)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>9808</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G282" s="0" t="n">
+        <f aca="false">IF(E282="xIDx",0,F282)</f>
         <v>10</v>
       </c>
     </row>

--- a/really.xlsx
+++ b/really.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="455">
   <si>
     <t xml:space="preserve">session_start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Всего очков</t>
   </si>
   <si>
+    <t xml:space="preserve">Клан</t>
+  </si>
+  <si>
     <t xml:space="preserve">Всего сбито</t>
   </si>
   <si>
@@ -64,141 +67,147 @@
     <t xml:space="preserve">Nekopara</t>
   </si>
   <si>
+    <t xml:space="preserve">12:48:02.256</t>
+  </si>
+  <si>
     <t xml:space="preserve">4CB</t>
   </si>
   <si>
+    <t xml:space="preserve">12:49:47.855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:18:56.886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KarauL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:22:02.574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:43:42.597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlaStoR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:54:54.937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:59:40.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:17:09.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LuX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:19:14.681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UtorknessKanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:58:44.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3axBaT4uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:03:07.850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:03:53.750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:04:58.802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:09:07.072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:12:17.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:15:44.307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:20:38.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021.10.12 15.27.56.434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:29:45.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:30:49.873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:31:52.434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:35:43.501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:36:58.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:37:35.615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allegiance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:45:35.219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:48:02.786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:51:41.605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:53:30.090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:13:18.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YatagaN4k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:14:18.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThanosKilerSquad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021.10.12 17.42.08.408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:29:52.583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOIEnTiTiIOI</t>
+  </si>
+  <si>
     <t xml:space="preserve">AoWAR</t>
   </si>
   <si>
-    <t xml:space="preserve">SWARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:48:02.256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:49:47.855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:18:56.886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KarauL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:22:02.574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:43:42.597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlaStoR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:54:54.937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:59:40.205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:17:09.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:19:14.681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UtorknessKanel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:58:44.165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3axBaT4uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:03:07.850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:03:53.750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:04:58.802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:09:07.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:12:17.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:15:44.307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:20:38.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021.10.12 15.27.56.434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:29:45.464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:30:49.873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:31:52.434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:35:43.501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:36:58.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:37:35.615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allegiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:45:35.219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:48:02.786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:51:41.605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16:53:30.090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:13:18.017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YatagaN4k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17:14:18.982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThanosKilerSquad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021.10.12 17.42.08.408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:29:52.583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOIEnTiTiIOI</t>
-  </si>
-  <si>
     <t xml:space="preserve">19:33:37.834</t>
   </si>
   <si>
@@ -229,9 +238,6 @@
     <t xml:space="preserve">SAYONARA</t>
   </si>
   <si>
-    <t xml:space="preserve">P2W</t>
-  </si>
-  <si>
     <t xml:space="preserve">20:05:10.101</t>
   </si>
   <si>
@@ -280,9 +286,6 @@
     <t xml:space="preserve">HoWHoW</t>
   </si>
   <si>
-    <t xml:space="preserve">LuX</t>
-  </si>
-  <si>
     <t xml:space="preserve">20:42:25.171</t>
   </si>
   <si>
@@ -1238,6 +1241,150 @@
   </si>
   <si>
     <t xml:space="preserve">BenedIct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021.10.29 18.51.34.894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:49:06.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:52:03.546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:19:34.959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:19:53.245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:22:40.378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:24:05.111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:25:21.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:25:55.729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:30:31.469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:31:43.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:43:16.603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:24:16.607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XENON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:39:44.532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:15:45.731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stalker71RUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:16:57.281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:17:10.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:18:10.666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:24:01.485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:24:40.334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:32:51.472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:42:07.242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:43:05.094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021.10.30 14.27.15.876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:01:10.394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoctorSpirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021.10.30 17.59.17.329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:14:17.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:55:58.640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:59:57.748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:07:44.114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:38:01.808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:18:06.095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:34:27.918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:43:20.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FireWarrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:44:43.672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:57:31.494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:32:41.979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OblachKo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:36:03.079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:36:26.995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:30:50.370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:45:49.659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:55:09.281</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1328,6 +1475,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1347,13 +1498,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O282"/>
+  <dimension ref="A1:Z321"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -1393,28 +1544,28 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4744</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -1425,45 +1576,31 @@
       </c>
       <c r="H2" s="2" t="n">
         <f aca="false">SUM(G2:G1048576)</f>
-        <v>2130</v>
+        <v>2525</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>18</v>
+      <c r="J2" s="4" t="n">
+        <f aca="false">COUNTIF($E2:$E$1048576,I2)</f>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6813</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>5</v>
@@ -1472,50 +1609,29 @@
         <f aca="false">IF(E3="xIDx",0,F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E1048576,I$2)</f>
-        <v>49</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E1048576,J$2)</f>
-        <v>126</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E1048576,K$2)</f>
-        <v>49</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E1048576,L$2)</f>
-        <v>5</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E1048576,M$2)</f>
-        <v>13</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E1048576,N$2)</f>
-        <v>6</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <f aca="false">COUNTIF($E2:$E1048576,O$2)</f>
-        <v>2</v>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <f aca="false">COUNTIF($E3:$E$1048576,I3)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9593</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>5</v>
@@ -1524,22 +1640,29 @@
         <f aca="false">IF(E4="xIDx",0,F4)</f>
         <v>0</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <f aca="false">COUNTIF($E4:$E$1048576,I4)</f>
+        <v>47</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>5793</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>5</v>
@@ -1548,22 +1671,33 @@
         <f aca="false">IF(E5="xIDx",0,F5)</f>
         <v>0</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <f aca="false">COUNTIF($E5:$E$1048576,I5)</f>
+        <v>2</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>11053</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -1572,22 +1706,38 @@
         <f aca="false">IF(E6="xIDx",0,F6)</f>
         <v>0</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <f aca="false">COUNTIF($E6:$E$1048576,I6)</f>
+        <v>13</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5048</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>5</v>
@@ -1596,10 +1746,17 @@
         <f aca="false">IF(E7="xIDx",0,F7)</f>
         <v>0</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <f aca="false">COUNTIF($E7:$E$1048576,I7)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>26</v>
@@ -1608,10 +1765,10 @@
         <v>6271</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>5</v>
@@ -1620,10 +1777,17 @@
         <f aca="false">IF(E8="xIDx",0,F8)</f>
         <v>0</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">COUNTIF($E8:$E$1048576,I8)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>27</v>
@@ -1632,10 +1796,10 @@
         <v>17801</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>5</v>
@@ -1644,22 +1808,29 @@
         <f aca="false">IF(E9="xIDx",0,F9)</f>
         <v>0</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <f aca="false">COUNTIF($E9:$E$1048576,I9)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4996</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>5</v>
@@ -1668,22 +1839,29 @@
         <f aca="false">IF(E10="xIDx",0,F10)</f>
         <v>0</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <f aca="false">COUNTIF($E10:$E$1048576,I10)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>9624</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -1695,19 +1873,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>6664</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -1719,19 +1897,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3295</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
@@ -1743,19 +1921,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4977</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
@@ -1767,19 +1945,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>7388</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>8</v>
@@ -1791,19 +1969,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>16094</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>8</v>
@@ -1815,19 +1993,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1318</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -1839,19 +2017,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>9491</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>8</v>
@@ -1863,19 +2041,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>621</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -1887,19 +2065,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1239</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -1911,19 +2089,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3011</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -1935,19 +2113,19 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>5294</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>8</v>
@@ -1959,19 +2137,19 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>14490</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>8</v>
@@ -1983,19 +2161,19 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>18440</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>8</v>
@@ -2007,19 +2185,19 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>38165</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -2031,19 +2209,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>7440</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -2055,19 +2233,19 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>22906</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>10</v>
@@ -2079,19 +2257,19 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>47358</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>10</v>
@@ -2103,19 +2281,19 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>57613</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>10</v>
@@ -2127,19 +2305,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>2061</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>10</v>
@@ -2151,19 +2329,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>5677</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>10</v>
@@ -2175,19 +2353,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2650</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>12</v>
@@ -2199,19 +2377,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>11036</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>12</v>
@@ -2223,19 +2401,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>18709</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>12</v>
@@ -2247,19 +2425,19 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>9605</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>-40</v>
@@ -2271,19 +2449,19 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>21689</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>-40</v>
@@ -2295,19 +2473,19 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>3885</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>-40</v>
@@ -2319,19 +2497,19 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5003</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>12</v>
@@ -2343,19 +2521,19 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>5288</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>12</v>
@@ -2367,19 +2545,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>20122</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>10</v>
@@ -2391,19 +2569,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2598</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>10</v>
@@ -2415,19 +2593,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>4512</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>10</v>
@@ -2439,19 +2617,19 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>5134</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>10</v>
@@ -2463,19 +2641,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>5440</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>10</v>
@@ -2487,19 +2665,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>10131</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>10</v>
@@ -2511,19 +2689,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3313</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>12</v>
@@ -2535,19 +2713,19 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>8052</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>12</v>
@@ -2559,19 +2737,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>1616</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>12</v>
@@ -2583,19 +2761,19 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>4142</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>12</v>
@@ -2607,19 +2785,19 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>33113</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>10</v>
@@ -2631,19 +2809,19 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>38247</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>10</v>
@@ -2655,19 +2833,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>52662</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>10</v>
@@ -2679,19 +2857,19 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>53717</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>12</v>
@@ -2703,19 +2881,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>58633</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>10</v>
@@ -2727,19 +2905,19 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>60254</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>12</v>
@@ -2751,19 +2929,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>467</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>12</v>
@@ -2775,19 +2953,19 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>32731</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>12</v>
@@ -2799,19 +2977,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>2631</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>5</v>
@@ -2823,19 +3001,19 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>7953</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>5</v>
@@ -2847,19 +3025,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>3188</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>10</v>
@@ -2871,19 +3049,19 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>4753</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>10</v>
@@ -2895,19 +3073,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>16196</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>10</v>
@@ -2919,19 +3097,19 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>4419</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>10</v>
@@ -2943,19 +3121,19 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>43040</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>10</v>
@@ -2967,19 +3145,19 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>50326</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>10</v>
@@ -2991,19 +3169,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1802</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>10</v>
@@ -3015,19 +3193,19 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>17403</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>10</v>
@@ -3039,19 +3217,19 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>19692</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>10</v>
@@ -3063,19 +3241,19 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>21932</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>10</v>
@@ -3087,19 +3265,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>22826</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>10</v>
@@ -3111,19 +3289,19 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>3794</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>10</v>
@@ -3135,19 +3313,19 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>12028</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>10</v>
@@ -3159,19 +3337,19 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>32368</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>10</v>
@@ -3183,19 +3361,19 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>14523</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>10</v>
@@ -3207,19 +3385,19 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>53987</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>10</v>
@@ -3231,19 +3409,19 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>58146</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>10</v>
@@ -3255,19 +3433,19 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>3774</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>10</v>
@@ -3279,19 +3457,19 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>4518</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>10</v>
@@ -3303,19 +3481,19 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>13079</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>10</v>
@@ -3327,19 +3505,19 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>39379</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>10</v>
@@ -3351,19 +3529,19 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>68306</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>10</v>
@@ -3375,19 +3553,19 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>93095</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>10</v>
@@ -3399,19 +3577,19 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>3796</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>12</v>
@@ -3423,19 +3601,19 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>4051</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>12</v>
@@ -3447,19 +3625,19 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>8625</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>12</v>
@@ -3471,19 +3649,19 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>3456</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>5</v>
@@ -3495,19 +3673,19 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>4995</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>5</v>
@@ -3519,19 +3697,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>9740</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>5</v>
@@ -3543,19 +3721,19 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>4314</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>5</v>
@@ -3567,19 +3745,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>7584</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>5</v>
@@ -3591,19 +3769,19 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>1268</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>5</v>
@@ -3615,19 +3793,19 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>3383</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>5</v>
@@ -3639,19 +3817,19 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>5849</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>5</v>
@@ -3663,19 +3841,19 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>7637</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>5</v>
@@ -3687,19 +3865,19 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>8533</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>5</v>
@@ -3711,19 +3889,19 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>12515</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>5</v>
@@ -3735,19 +3913,19 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3013</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>5</v>
@@ -3759,19 +3937,19 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>10028</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>5</v>
@@ -3783,19 +3961,19 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>2056</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>5</v>
@@ -3807,19 +3985,19 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>5368</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F100" s="0" t="n">
         <v>5</v>
@@ -3831,19 +4009,19 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>7767</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>5</v>
@@ -3855,19 +4033,19 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>12642</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>5</v>
@@ -3879,19 +4057,19 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>7478</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>12</v>
@@ -3903,19 +4081,19 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>13867</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>12</v>
@@ -3927,19 +4105,19 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>28409</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>10</v>
@@ -3951,19 +4129,19 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>29602</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>10</v>
@@ -3975,19 +4153,19 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>1836</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>10</v>
@@ -3999,19 +4177,19 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>2055</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>10</v>
@@ -4023,19 +4201,19 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>3308</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>10</v>
@@ -4047,19 +4225,19 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>34278</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>10</v>
@@ -4071,19 +4249,19 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>62022</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>10</v>
@@ -4095,19 +4273,19 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>62654</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>10</v>
@@ -4119,19 +4297,19 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>8516</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>5</v>
@@ -4143,19 +4321,19 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>9611</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>5</v>
@@ -4167,19 +4345,19 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>14425</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>5</v>
@@ -4191,19 +4369,19 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>7028</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>5</v>
@@ -4215,19 +4393,19 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>13084</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>5</v>
@@ -4239,19 +4417,19 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>3810</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>12</v>
@@ -4263,19 +4441,19 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>3261</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>10</v>
@@ -4287,19 +4465,19 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>22254</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>10</v>
@@ -4311,19 +4489,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>23981</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>10</v>
@@ -4335,19 +4513,19 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>24136</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>12</v>
@@ -4359,19 +4537,19 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>24658</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>10</v>
@@ -4383,19 +4561,19 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>28718</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>10</v>
@@ -4407,19 +4585,19 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>79033</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>10</v>
@@ -4431,19 +4609,19 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>61286</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>10</v>
@@ -4455,19 +4633,19 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>83650</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F127" s="0" t="n">
         <v>10</v>
@@ -4479,19 +4657,19 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>19256</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F128" s="0" t="n">
         <v>10</v>
@@ -4503,19 +4681,19 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>38896</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>10</v>
@@ -4527,19 +4705,19 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>41012</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>10</v>
@@ -4551,19 +4729,19 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>1986</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>12</v>
@@ -4575,19 +4753,19 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>6753</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F132" s="0" t="n">
         <v>10</v>
@@ -4599,19 +4777,19 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>10613</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F133" s="0" t="n">
         <v>10</v>
@@ -4623,19 +4801,19 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>19861</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F134" s="0" t="n">
         <v>10</v>
@@ -4647,19 +4825,19 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>23380</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F135" s="0" t="n">
         <v>10</v>
@@ -4671,19 +4849,19 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>38782</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F136" s="0" t="n">
         <v>10</v>
@@ -4695,19 +4873,19 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>49522</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F137" s="0" t="n">
         <v>12</v>
@@ -4719,19 +4897,19 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>68475</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>10</v>
@@ -4743,19 +4921,19 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>10235</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F139" s="0" t="n">
         <v>10</v>
@@ -4767,19 +4945,19 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>55898</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F140" s="0" t="n">
         <v>12</v>
@@ -4791,19 +4969,19 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>8954</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>10</v>
@@ -4815,19 +4993,19 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>13035</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>10</v>
@@ -4839,19 +5017,19 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>9435</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>10</v>
@@ -4863,19 +5041,19 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>13216</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>10</v>
@@ -4887,19 +5065,19 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>4323</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F145" s="0" t="n">
         <v>10</v>
@@ -4911,19 +5089,19 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>9582</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>10</v>
@@ -4935,19 +5113,19 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>11405</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>10</v>
@@ -4959,19 +5137,19 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>3739</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>10</v>
@@ -4983,19 +5161,19 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>8552</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>10</v>
@@ -5007,19 +5185,19 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>24977</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F150" s="0" t="n">
         <v>10</v>
@@ -5031,19 +5209,19 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>32027</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>12</v>
@@ -5055,19 +5233,19 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>14915</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>8</v>
@@ -5079,19 +5257,19 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>474</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F153" s="0" t="n">
         <v>5</v>
@@ -5103,19 +5281,19 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>7554</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>5</v>
@@ -5127,19 +5305,19 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>13875</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F155" s="0" t="n">
         <v>12</v>
@@ -5151,19 +5329,19 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>16195</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F156" s="0" t="n">
         <v>12</v>
@@ -5175,19 +5353,19 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>16926</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>10</v>
@@ -5199,19 +5377,19 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>22527</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F158" s="0" t="n">
         <v>12</v>
@@ -5223,19 +5401,19 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>27864</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>10</v>
@@ -5247,19 +5425,19 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>28212</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F160" s="0" t="n">
         <v>12</v>
@@ -5271,19 +5449,19 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>6542</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>12</v>
@@ -5295,19 +5473,19 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>1067</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>10</v>
@@ -5319,19 +5497,19 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>4276</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>10</v>
@@ -5343,19 +5521,19 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>6004</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>10</v>
@@ -5367,19 +5545,19 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>3217</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F165" s="0" t="n">
         <v>10</v>
@@ -5391,19 +5569,19 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>4445</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F166" s="0" t="n">
         <v>10</v>
@@ -5415,19 +5593,19 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>11091</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F167" s="0" t="n">
         <v>10</v>
@@ -5439,19 +5617,19 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>1188</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F168" s="0" t="n">
         <v>5</v>
@@ -5463,19 +5641,19 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>6573</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F169" s="0" t="n">
         <v>12</v>
@@ -5487,19 +5665,19 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>8500</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>5</v>
@@ -5511,19 +5689,19 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>9949</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F171" s="0" t="n">
         <v>12</v>
@@ -5535,19 +5713,19 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>3133</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F172" s="0" t="n">
         <v>8</v>
@@ -5559,19 +5737,19 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>5454</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F173" s="0" t="n">
         <v>8</v>
@@ -5583,19 +5761,19 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>21788</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F174" s="0" t="n">
         <v>10</v>
@@ -5607,19 +5785,19 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>24283</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>10</v>
@@ -5631,19 +5809,19 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>43526</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F176" s="0" t="n">
         <v>10</v>
@@ -5655,19 +5833,19 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>71831</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F177" s="0" t="n">
         <v>10</v>
@@ -5679,19 +5857,19 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>5225</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F178" s="0" t="n">
         <v>10</v>
@@ -5703,19 +5881,19 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>15922</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F179" s="0" t="n">
         <v>10</v>
@@ -5727,19 +5905,19 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>23129</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F180" s="0" t="n">
         <v>10</v>
@@ -5751,19 +5929,19 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>29415</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F181" s="0" t="n">
         <v>10</v>
@@ -5775,19 +5953,19 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>29729</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F182" s="0" t="n">
         <v>10</v>
@@ -5799,19 +5977,19 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>779</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F183" s="0" t="n">
         <v>5</v>
@@ -5823,19 +6001,19 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>4835</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>5</v>
@@ -5847,19 +6025,19 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>1446</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>8</v>
@@ -5871,19 +6049,19 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>7605</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>8</v>
@@ -5895,19 +6073,19 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>15561</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F187" s="0" t="n">
         <v>8</v>
@@ -5919,19 +6097,19 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>3191</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F188" s="0" t="n">
         <v>5</v>
@@ -5943,19 +6121,19 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>6188</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F189" s="0" t="n">
         <v>12</v>
@@ -5967,19 +6145,19 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>7293</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F190" s="0" t="n">
         <v>12</v>
@@ -5991,19 +6169,19 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>9542</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F191" s="0" t="n">
         <v>5</v>
@@ -6015,19 +6193,19 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>5184</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F192" s="0" t="n">
         <v>5</v>
@@ -6039,19 +6217,19 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>9614</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>5</v>
@@ -6063,19 +6241,19 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>1384</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F194" s="0" t="n">
         <v>5</v>
@@ -6087,19 +6265,19 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>9762</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>5</v>
@@ -6111,19 +6289,19 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>12588</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F196" s="0" t="n">
         <v>5</v>
@@ -6135,19 +6313,19 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>1117</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>10</v>
@@ -6159,19 +6337,19 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>9805</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F198" s="0" t="n">
         <v>10</v>
@@ -6183,19 +6361,19 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>19039</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F199" s="0" t="n">
         <v>12</v>
@@ -6207,19 +6385,19 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>23359</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>12</v>
@@ -6231,19 +6409,19 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>36307</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F201" s="0" t="n">
         <v>10</v>
@@ -6255,19 +6433,19 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>1831</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F202" s="0" t="n">
         <v>8</v>
@@ -6279,19 +6457,19 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>576</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F203" s="0" t="n">
         <v>5</v>
@@ -6303,19 +6481,19 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>4606</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F204" s="0" t="n">
         <v>12</v>
@@ -6327,19 +6505,19 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>6247</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F205" s="0" t="n">
         <v>12</v>
@@ -6351,19 +6529,19 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>14211</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F206" s="0" t="n">
         <v>12</v>
@@ -6375,19 +6553,19 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>16076</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F207" s="0" t="n">
         <v>12</v>
@@ -6399,19 +6577,19 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>5327</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F208" s="0" t="n">
         <v>10</v>
@@ -6423,19 +6601,19 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>9416</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F209" s="0" t="n">
         <v>10</v>
@@ -6447,19 +6625,19 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>28422</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F210" s="0" t="n">
         <v>10</v>
@@ -6471,19 +6649,19 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>31077</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F211" s="0" t="n">
         <v>10</v>
@@ -6495,19 +6673,19 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>33093</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F212" s="0" t="n">
         <v>10</v>
@@ -6519,19 +6697,19 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>67067</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F213" s="0" t="n">
         <v>10</v>
@@ -6543,19 +6721,19 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>41318</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F214" s="0" t="n">
         <v>10</v>
@@ -6567,19 +6745,19 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>41977</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F215" s="0" t="n">
         <v>10</v>
@@ -6591,19 +6769,19 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>56930</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F216" s="0" t="n">
         <v>10</v>
@@ -6615,19 +6793,19 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>64343</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F217" s="0" t="n">
         <v>10</v>
@@ -6639,19 +6817,19 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>26931</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F218" s="0" t="n">
         <v>5</v>
@@ -6663,19 +6841,19 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>19315</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F219" s="0" t="n">
         <v>10</v>
@@ -6687,19 +6865,19 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>25563</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F220" s="0" t="n">
         <v>10</v>
@@ -6711,19 +6889,19 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>8143</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F221" s="0" t="n">
         <v>10</v>
@@ -6735,19 +6913,19 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>18704</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F222" s="0" t="n">
         <v>10</v>
@@ -6759,19 +6937,19 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>23923</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F223" s="0" t="n">
         <v>10</v>
@@ -6783,19 +6961,19 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>678</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F224" s="0" t="n">
         <v>10</v>
@@ -6807,19 +6985,19 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>1020</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F225" s="0" t="n">
         <v>12</v>
@@ -6831,19 +7009,19 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>1646</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F226" s="0" t="n">
         <v>12</v>
@@ -6855,19 +7033,19 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>2123</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F227" s="0" t="n">
         <v>12</v>
@@ -6879,19 +7057,19 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>4724</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F228" s="0" t="n">
         <v>12</v>
@@ -6903,19 +7081,19 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>2559</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F229" s="0" t="n">
         <v>10</v>
@@ -6927,19 +7105,19 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>8482</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F230" s="0" t="n">
         <v>5</v>
@@ -6951,19 +7129,19 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>10399</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F231" s="0" t="n">
         <v>5</v>
@@ -6975,19 +7153,19 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>13092</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F232" s="0" t="n">
         <v>10</v>
@@ -6999,19 +7177,19 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>48102</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F233" s="0" t="n">
         <v>10</v>
@@ -7023,19 +7201,19 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>59657</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F234" s="0" t="n">
         <v>10</v>
@@ -7047,19 +7225,19 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>8419</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F235" s="0" t="n">
         <v>8</v>
@@ -7071,19 +7249,19 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>11244</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F236" s="0" t="n">
         <v>5</v>
@@ -7095,19 +7273,19 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>12438</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F237" s="0" t="n">
         <v>8</v>
@@ -7119,19 +7297,19 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>5107</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F238" s="0" t="n">
         <v>10</v>
@@ -7143,19 +7321,19 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>38363</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F239" s="0" t="n">
         <v>10</v>
@@ -7167,19 +7345,19 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>15045</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F240" s="0" t="n">
         <v>12</v>
@@ -7191,19 +7369,19 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>20391</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F241" s="0" t="n">
         <v>10</v>
@@ -7215,19 +7393,19 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>8121</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F242" s="0" t="n">
         <v>10</v>
@@ -7239,19 +7417,19 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>9047</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F243" s="0" t="n">
         <v>10</v>
@@ -7263,19 +7441,19 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>22459</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F244" s="0" t="n">
         <v>12</v>
@@ -7287,19 +7465,19 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>37324</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F245" s="0" t="n">
         <v>10</v>
@@ -7311,19 +7489,19 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>41403</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F246" s="0" t="n">
         <v>10</v>
@@ -7335,19 +7513,19 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>65487</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F247" s="0" t="n">
         <v>10</v>
@@ -7359,19 +7537,19 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>569</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F248" s="0" t="n">
         <v>10</v>
@@ -7383,19 +7561,19 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>9653</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F249" s="0" t="n">
         <v>10</v>
@@ -7407,19 +7585,19 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>14927</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F250" s="0" t="n">
         <v>-40</v>
@@ -7431,19 +7609,19 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>5716</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F251" s="0" t="n">
         <v>10</v>
@@ -7455,19 +7633,19 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>15062</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F252" s="0" t="n">
         <v>10</v>
@@ -7479,19 +7657,19 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>4896</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F253" s="0" t="n">
         <v>12</v>
@@ -7503,19 +7681,19 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>56963</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F254" s="0" t="n">
         <v>10</v>
@@ -7527,19 +7705,19 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>75965</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F255" s="0" t="n">
         <v>10</v>
@@ -7551,19 +7729,19 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C256" s="0" t="n">
         <v>6747</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F256" s="0" t="n">
         <v>10</v>
@@ -7575,19 +7753,19 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>11449</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F257" s="0" t="n">
         <v>15</v>
@@ -7599,19 +7777,19 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>6446</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F258" s="0" t="n">
         <v>12</v>
@@ -7623,19 +7801,19 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>30528</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F259" s="0" t="n">
         <v>10</v>
@@ -7647,19 +7825,19 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>797</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F260" s="0" t="n">
         <v>10</v>
@@ -7671,19 +7849,19 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>4896</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F261" s="0" t="n">
         <v>10</v>
@@ -7695,19 +7873,19 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>10035</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F262" s="0" t="n">
         <v>10</v>
@@ -7719,19 +7897,19 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>17775</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F263" s="0" t="n">
         <v>10</v>
@@ -7743,19 +7921,19 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>21185</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F264" s="0" t="n">
         <v>10</v>
@@ -7767,19 +7945,19 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>24595</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F265" s="0" t="n">
         <v>10</v>
@@ -7791,19 +7969,19 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>28246</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F266" s="0" t="n">
         <v>10</v>
@@ -7815,19 +7993,19 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>31076</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F267" s="0" t="n">
         <v>10</v>
@@ -7839,19 +8017,19 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>39057</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F268" s="0" t="n">
         <v>10</v>
@@ -7863,19 +8041,19 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>2977</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F269" s="0" t="n">
         <v>10</v>
@@ -7887,19 +8065,19 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>6599</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F270" s="0" t="n">
         <v>10</v>
@@ -7911,19 +8089,19 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>15470</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F271" s="0" t="n">
         <v>10</v>
@@ -7935,19 +8113,19 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>19558</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F272" s="0" t="n">
         <v>10</v>
@@ -7959,19 +8137,19 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>21044</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F273" s="0" t="n">
         <v>12</v>
@@ -7983,19 +8161,19 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>29645</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F274" s="0" t="n">
         <v>10</v>
@@ -8007,19 +8185,19 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>30362</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F275" s="0" t="n">
         <v>10</v>
@@ -8031,19 +8209,19 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>53673</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F276" s="0" t="n">
         <v>12</v>
@@ -8055,19 +8233,19 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>3872</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F277" s="0" t="n">
         <v>10</v>
@@ -8079,19 +8257,19 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>22813</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F278" s="0" t="n">
         <v>10</v>
@@ -8103,19 +8281,19 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>25190</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F279" s="0" t="n">
         <v>10</v>
@@ -8127,19 +8305,19 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>27448</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F280" s="0" t="n">
         <v>10</v>
@@ -8151,19 +8329,19 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>54145</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F281" s="0" t="n">
         <v>10</v>
@@ -8175,19 +8353,19 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>9808</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F282" s="0" t="n">
         <v>10</v>
@@ -8197,10 +8375,943 @@
         <v>10</v>
       </c>
     </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>7501</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <f aca="false">IF(E283="xIDx",0,F283)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>10859</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G284" s="0" t="n">
+        <f aca="false">IF(E284="xIDx",0,F284)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>2782</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F285" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G285" s="0" t="n">
+        <f aca="false">IF(E285="xIDx",0,F285)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>3077</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G286" s="0" t="n">
+        <f aca="false">IF(E286="xIDx",0,F286)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F287" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G287" s="0" t="n">
+        <f aca="false">IF(E287="xIDx",0,F287)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>7902</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F288" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G288" s="0" t="n">
+        <f aca="false">IF(E288="xIDx",0,F288)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>9732</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F289" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G289" s="0" t="n">
+        <f aca="false">IF(E289="xIDx",0,F289)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>10439</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F290" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G290" s="0" t="n">
+        <f aca="false">IF(E290="xIDx",0,F290)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F291" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G291" s="0" t="n">
+        <f aca="false">IF(E291="xIDx",0,F291)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B292" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>4883</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F292" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G292" s="0" t="n">
+        <f aca="false">IF(E292="xIDx",0,F292)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>8264</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F293" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G293" s="0" t="n">
+        <f aca="false">IF(E293="xIDx",0,F293)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>6028</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F294" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G294" s="0" t="n">
+        <f aca="false">IF(E294="xIDx",0,F294)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>34728</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="F295" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G295" s="0" t="n">
+        <f aca="false">IF(E295="xIDx",0,F295)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G296" s="0" t="n">
+        <f aca="false">IF(E296="xIDx",0,F296)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>3814</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G297" s="0" t="n">
+        <f aca="false">IF(E297="xIDx",0,F297)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>4120</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F298" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G298" s="0" t="n">
+        <f aca="false">IF(E298="xIDx",0,F298)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>5552</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F299" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G299" s="0" t="n">
+        <f aca="false">IF(E299="xIDx",0,F299)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>10097</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F300" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G300" s="0" t="n">
+        <f aca="false">IF(E300="xIDx",0,F300)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C301" s="0" t="n">
+        <v>10588</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G301" s="0" t="n">
+        <f aca="false">IF(E301="xIDx",0,F301)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C302" s="0" t="n">
+        <v>11478</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G302" s="0" t="n">
+        <f aca="false">IF(E302="xIDx",0,F302)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C303" s="0" t="n">
+        <v>9130</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F303" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G303" s="0" t="n">
+        <f aca="false">IF(E303="xIDx",0,F303)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C304" s="0" t="n">
+        <v>9744</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F304" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G304" s="0" t="n">
+        <f aca="false">IF(E304="xIDx",0,F304)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>44343</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="F305" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G305" s="0" t="n">
+        <f aca="false">IF(E305="xIDx",0,F305)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>15146</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F306" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G306" s="0" t="n">
+        <f aca="false">IF(E306="xIDx",0,F306)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>6192</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G307" s="0" t="n">
+        <f aca="false">IF(E307="xIDx",0,F307)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>11933</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F308" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G308" s="0" t="n">
+        <f aca="false">IF(E308="xIDx",0,F308)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>3027</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F309" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G309" s="0" t="n">
+        <f aca="false">IF(E309="xIDx",0,F309)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>3129</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G310" s="0" t="n">
+        <f aca="false">IF(E310="xIDx",0,F310)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>5198</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G311" s="0" t="n">
+        <f aca="false">IF(E311="xIDx",0,F311)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>1478</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F312" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G312" s="0" t="n">
+        <f aca="false">IF(E312="xIDx",0,F312)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>72159</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F313" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G313" s="0" t="n">
+        <f aca="false">IF(E313="xIDx",0,F313)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>85004</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F314" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G314" s="0" t="n">
+        <f aca="false">IF(E314="xIDx",0,F314)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>63187</v>
+      </c>
+      <c r="D315" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E315" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F315" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G315" s="0" t="n">
+        <f aca="false">IF(E315="xIDx",0,F315)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>13340</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F316" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G316" s="0" t="n">
+        <f aca="false">IF(E316="xIDx",0,F316)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C317" s="0" t="n">
+        <v>18555</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F317" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G317" s="0" t="n">
+        <f aca="false">IF(E317="xIDx",0,F317)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>19149</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F318" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G318" s="0" t="n">
+        <f aca="false">IF(E318="xIDx",0,F318)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C319" s="0" t="n">
+        <v>17222</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F319" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G319" s="0" t="n">
+        <f aca="false">IF(E319="xIDx",0,F319)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C320" s="0" t="n">
+        <v>44608</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F320" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G320" s="0" t="n">
+        <f aca="false">IF(E320="xIDx",0,F320)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C321" s="0" t="n">
+        <v>20424</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G321" s="0" t="n">
+        <f aca="false">IF(E321="xIDx",0,F321)</f>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:O1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
